--- a/app/resource/data/tags_list.xlsx
+++ b/app/resource/data/tags_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>拔作向</t>
+          <t>手游</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>手游</t>
+          <t>剧情向</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>日常向</t>
+          <t>开放世界</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>开放世界</t>
+          <t>妹系</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>单机</t>
+          <t>3D</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>剧情向</t>
+          <t>日常向</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3D</t>
+          <t>联机</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>联机</t>
+          <t>单机</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>拔作向</t>
         </is>
       </c>
     </row>
